--- a/data/describe/few_shot_label.xlsx
+++ b/data/describe/few_shot_label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Documents\datomatisation\datomatisation-dev\data\describe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE22FF1-F2A6-41B3-BAF1-31DF8A69D3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F18BC8-2871-4D14-B419-348191AD5474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{75A2F0CC-120C-46DD-B882-D3F79246B1DD}"/>
+    <workbookView xWindow="30510" yWindow="1710" windowWidth="20820" windowHeight="17445" xr2:uid="{75A2F0CC-120C-46DD-B882-D3F79246B1DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>User</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Extrovert</t>
+  </si>
+  <si>
+    <t>Entities in this cluster are outgoing and carefree, while being slightly less reserved and imaginative, giving them a relaxed and sociable style. They are outgoing and carefree, making them comfortable and confident in social settings. Their weaknesses are minor being less reserved and imaginative may sometimes lead to less caution, planning, or reflection.</t>
+  </si>
+  <si>
+    <t>Outgoing and carefree</t>
   </si>
 </sst>
 </file>
@@ -101,12 +107,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -426,7 +435,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -467,9 +476,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
